--- a/tiobe.xlsx
+++ b/tiobe.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Language</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>-1.59</t>
+  </si>
+  <si>
+    <t>CONCAT(A2:A3)</t>
   </si>
 </sst>
 </file>
@@ -223,6 +226,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
